--- a/每週買賣報表/借券/每週空單需求2022-09-20.xlsx
+++ b/每週買賣報表/借券/每週空單需求2022-09-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>空單賣出標的</t>
   </si>
@@ -25,25 +25,7 @@
     <t>需求張數</t>
   </si>
   <si>
-    <t>1762</t>
-  </si>
-  <si>
-    <t>2034</t>
-  </si>
-  <si>
-    <t>3221</t>
-  </si>
-  <si>
-    <t>4721</t>
-  </si>
-  <si>
-    <t>4739</t>
-  </si>
-  <si>
-    <t>6180</t>
-  </si>
-  <si>
-    <t>6491</t>
+    <t>6147</t>
   </si>
 </sst>
 </file>
@@ -401,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,94 +408,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>55.4</v>
+        <v>53.9</v>
       </c>
       <c r="D2">
         <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>28.95</v>
-      </c>
-      <c r="D3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>29.85</v>
-      </c>
-      <c r="D4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>121</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>112</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>57.4</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>378</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
